--- a/liensLogistiqueFr.xlsx
+++ b/liensLogistiqueFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F151881B-27C5-44C0-861E-8CE854007E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2704F2BD-D232-40EA-A44C-ECF576135CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57450" yWindow="2520" windowWidth="21255" windowHeight="17325" xr2:uid="{B6EA6BD2-203B-428A-9436-6037610129C9}"/>
+    <workbookView xWindow="38250" yWindow="2970" windowWidth="21255" windowHeight="17325" xr2:uid="{B6EA6BD2-203B-428A-9436-6037610129C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="73">
   <si>
     <t>Logistique PFI ClientFR</t>
   </si>
@@ -191,12 +191,6 @@
     <t>http://supwcsprd01.kiabi.fr:8080/HYP/</t>
   </si>
   <si>
-    <t>Supervision Infra Info PTS</t>
-  </si>
-  <si>
-    <t>http://solarwinds.kiabi.fr/</t>
-  </si>
-  <si>
     <t>Supervision INTELIS</t>
   </si>
   <si>
@@ -243,12 +237,6 @@
   </si>
   <si>
     <t>-ESL-</t>
-  </si>
-  <si>
-    <t>WMOS 2015 ESL</t>
-  </si>
-  <si>
-    <t>http://webwms70wms.kiabi.fr:12000/</t>
   </si>
   <si>
     <t>Nodhos RF</t>
@@ -671,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A2C12C-4E29-436F-A2C4-E66A20A8406C}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92:D92"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,25 +1099,19 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1145,10 +1127,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>22</v>
@@ -1159,7 +1141,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>30</v>
@@ -1170,7 +1152,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>15</v>
@@ -1184,7 +1166,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -1195,21 +1177,24 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>30</v>
@@ -1220,7 +1205,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>33</v>
@@ -1231,44 +1216,44 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
@@ -1280,42 +1265,45 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>45</v>
@@ -1324,9 +1312,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>47</v>
@@ -1335,9 +1323,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>49</v>
@@ -1346,9 +1334,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>38</v>
@@ -1357,9 +1345,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>23</v>
@@ -1368,20 +1356,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>22</v>
@@ -1390,9 +1378,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>43</v>
@@ -1401,78 +1389,75 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="E62" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="2" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>15</v>
@@ -1484,9 +1469,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>18</v>
@@ -1495,81 +1480,81 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="1" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="E74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -1578,9 +1563,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>33</v>
@@ -1589,45 +1574,48 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="E79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>28</v>
@@ -1638,18 +1626,18 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>45</v>
@@ -1660,7 +1648,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -1671,7 +1659,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>49</v>
@@ -1682,7 +1670,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>23</v>
@@ -1693,21 +1681,21 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>25</v>
@@ -1715,7 +1703,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>43</v>
@@ -1726,10 +1714,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>5</v>
@@ -1737,18 +1725,18 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>15</v>
@@ -1762,7 +1750,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>18</v>
@@ -1789,26 +1777,23 @@
     <hyperlink ref="D28" r:id="rId14" xr:uid="{AC371EAA-F648-4F46-9875-A66570F19DCB}"/>
     <hyperlink ref="D32" r:id="rId15" xr:uid="{353D1350-881F-48E5-AE75-83F59119754C}"/>
     <hyperlink ref="D35" r:id="rId16" xr:uid="{79D5CF3B-2D7A-420D-96F8-411A52B1FCD6}"/>
-    <hyperlink ref="D36" r:id="rId17" xr:uid="{F742B095-7422-471C-8EFE-3321084D96DE}"/>
-    <hyperlink ref="D39" r:id="rId18" xr:uid="{B01FF46F-9B33-48D0-B7AF-30ECC1019D9C}"/>
-    <hyperlink ref="D40" r:id="rId19" xr:uid="{A1835D94-7B93-4A35-9D7D-54497097A63D}"/>
-    <hyperlink ref="D41" r:id="rId20" xr:uid="{074C7E7F-96A5-4708-AC25-8ED3BAC13724}"/>
-    <hyperlink ref="D44" r:id="rId21" xr:uid="{1E6CE563-D33F-40E7-AB74-F494560A99B9}"/>
-    <hyperlink ref="D45" r:id="rId22" xr:uid="{CF16F808-F96E-4264-BE5A-83F2F667F162}"/>
-    <hyperlink ref="D53" r:id="rId23" xr:uid="{7CC9A5BE-2F66-4683-896F-20582CEB6DF4}"/>
-    <hyperlink ref="D56" r:id="rId24" xr:uid="{BB894060-7763-4D82-877C-E68B6AA0A241}"/>
-    <hyperlink ref="D57" r:id="rId25" xr:uid="{B328C352-B0D9-4AAC-8031-716C05C32161}"/>
-    <hyperlink ref="D59" r:id="rId26" xr:uid="{54BF004D-A3ED-4D47-9BE8-00D92F375968}"/>
-    <hyperlink ref="D63" r:id="rId27" xr:uid="{03A33EDF-924D-4C03-89AC-CB98500B4E73}"/>
-    <hyperlink ref="D67" r:id="rId28" xr:uid="{EEEA0389-5748-4110-BA2F-ED5A466F0994}"/>
-    <hyperlink ref="D70" r:id="rId29" xr:uid="{F3454C66-530F-45BB-8710-A5A44B0C164B}"/>
-    <hyperlink ref="D75" r:id="rId30" xr:uid="{CC3F3BBD-E254-481B-B59F-986DC159C1C6}"/>
-    <hyperlink ref="D76" r:id="rId31" xr:uid="{B4B4B8FC-660D-4917-BFAB-2EFBE3726C70}"/>
-    <hyperlink ref="D82" r:id="rId32" xr:uid="{32649840-1B19-4A81-BF62-E0DAE8E56A6A}"/>
-    <hyperlink ref="D83" r:id="rId33" xr:uid="{A7E608CB-FC2D-4897-8A3A-A40F9E3D312E}"/>
-    <hyperlink ref="D85" r:id="rId34" xr:uid="{018642E6-6CFD-43FC-93A1-3D31AF386BCD}"/>
-    <hyperlink ref="D88" r:id="rId35" xr:uid="{5AFB3C47-341D-48EF-A254-E78E1AD22105}"/>
-    <hyperlink ref="D91" r:id="rId36" xr:uid="{6FEF5465-F62B-4446-A92D-C76C7E85D2B6}"/>
+    <hyperlink ref="D39" r:id="rId17" xr:uid="{B01FF46F-9B33-48D0-B7AF-30ECC1019D9C}"/>
+    <hyperlink ref="D40" r:id="rId18" xr:uid="{A1835D94-7B93-4A35-9D7D-54497097A63D}"/>
+    <hyperlink ref="D41" r:id="rId19" xr:uid="{074C7E7F-96A5-4708-AC25-8ED3BAC13724}"/>
+    <hyperlink ref="D44" r:id="rId20" xr:uid="{1E6CE563-D33F-40E7-AB74-F494560A99B9}"/>
+    <hyperlink ref="D45" r:id="rId21" xr:uid="{CF16F808-F96E-4264-BE5A-83F2F667F162}"/>
+    <hyperlink ref="D53" r:id="rId22" xr:uid="{7CC9A5BE-2F66-4683-896F-20582CEB6DF4}"/>
+    <hyperlink ref="D56" r:id="rId23" xr:uid="{BB894060-7763-4D82-877C-E68B6AA0A241}"/>
+    <hyperlink ref="D57" r:id="rId24" xr:uid="{B328C352-B0D9-4AAC-8031-716C05C32161}"/>
+    <hyperlink ref="D59" r:id="rId25" xr:uid="{54BF004D-A3ED-4D47-9BE8-00D92F375968}"/>
+    <hyperlink ref="D67" r:id="rId26" xr:uid="{EEEA0389-5748-4110-BA2F-ED5A466F0994}"/>
+    <hyperlink ref="D75" r:id="rId27" xr:uid="{CC3F3BBD-E254-481B-B59F-986DC159C1C6}"/>
+    <hyperlink ref="D76" r:id="rId28" xr:uid="{B4B4B8FC-660D-4917-BFAB-2EFBE3726C70}"/>
+    <hyperlink ref="D82" r:id="rId29" xr:uid="{32649840-1B19-4A81-BF62-E0DAE8E56A6A}"/>
+    <hyperlink ref="D83" r:id="rId30" xr:uid="{A7E608CB-FC2D-4897-8A3A-A40F9E3D312E}"/>
+    <hyperlink ref="D85" r:id="rId31" xr:uid="{018642E6-6CFD-43FC-93A1-3D31AF386BCD}"/>
+    <hyperlink ref="D88" r:id="rId32" xr:uid="{5AFB3C47-341D-48EF-A254-E78E1AD22105}"/>
+    <hyperlink ref="D91" r:id="rId33" xr:uid="{6FEF5465-F62B-4446-A92D-C76C7E85D2B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liensLogistiqueFr.xlsx
+++ b/liensLogistiqueFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2704F2BD-D232-40EA-A44C-ECF576135CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE300C14-D214-4A3E-A222-0A5785C85FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38250" yWindow="2970" windowWidth="21255" windowHeight="17325" xr2:uid="{B6EA6BD2-203B-428A-9436-6037610129C9}"/>
+    <workbookView xWindow="43515" yWindow="3630" windowWidth="21255" windowHeight="17325" xr2:uid="{B6EA6BD2-203B-428A-9436-6037610129C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="76">
   <si>
     <t>Logistique PFI ClientFR</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Prise de RDV EID</t>
   </si>
   <si>
-    <t>https://b2b.kiabi.fr/logrdv</t>
-  </si>
-  <si>
     <t>-EIE-</t>
   </si>
   <si>
@@ -255,6 +252,18 @@
   </si>
   <si>
     <t>Prise de RDV ELW</t>
+  </si>
+  <si>
+    <t>microsoft-edge:https://b2b.kiabi.fr/logrdv</t>
+  </si>
+  <si>
+    <t>Prise de RDV EIP</t>
+  </si>
+  <si>
+    <t>Prise de RDV EIB</t>
+  </si>
+  <si>
+    <t>Prise de RDV EIC</t>
   </si>
 </sst>
 </file>
@@ -270,24 +279,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,17 +317,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A2C12C-4E29-436F-A2C4-E66A20A8406C}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,892 +677,965 @@
     <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>22</v>
+      <c r="C39" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" t="s">
         <v>63</v>
-      </c>
-      <c r="E48" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="C70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -1565,198 +1644,219 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="2" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="D86" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="1" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="3" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/liensLogistiqueFr.xlsx
+++ b/liensLogistiqueFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE300C14-D214-4A3E-A222-0A5785C85FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CC2818-FCE9-4D04-A6BE-1430309B7504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43515" yWindow="3630" windowWidth="21255" windowHeight="17325" xr2:uid="{B6EA6BD2-203B-428A-9436-6037610129C9}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{B6EA6BD2-203B-428A-9436-6037610129C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="71">
   <si>
     <t>Logistique PFI ClientFR</t>
   </si>
@@ -78,21 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve"> -EIC-</t>
-  </si>
-  <si>
-    <t>Liens Ressources Humaines :</t>
-  </si>
-  <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
-    <t>SMARTRH</t>
-  </si>
-  <si>
-    <t>https://myapps.kiabi.fr/idp/startSSO.ping?PartnerSpId=smarta090sso&amp;LoginForm=true</t>
   </si>
   <si>
     <t>Logistique TRI ClientFR</t>
@@ -665,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A2C12C-4E29-436F-A2C4-E66A20A8406C}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -729,10 +714,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -758,10 +743,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -787,10 +772,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,13 +798,13 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -842,13 +827,13 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -871,279 +856,265 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1154,336 +1125,322 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1494,81 +1451,67 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1579,60 +1522,60 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
@@ -1644,99 +1587,99 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="2" t="s">
@@ -1748,116 +1691,102 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1868,32 +1797,28 @@
     <hyperlink ref="D9" r:id="rId5" xr:uid="{4B0C88EE-2983-4672-A7E9-5FBCDCAB5BFD}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{1EAFEBC7-5C9C-4646-BE33-AF4243992D9F}"/>
     <hyperlink ref="D13" r:id="rId7" xr:uid="{DF1F2379-3F5D-45ED-8EFD-2B010839C165}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{C6F93595-2DEC-489B-8CAA-F8507EA60C88}"/>
-    <hyperlink ref="D18" r:id="rId9" xr:uid="{E4D28E08-87C9-4616-9A79-B5036C4F57D8}"/>
-    <hyperlink ref="D21" r:id="rId10" xr:uid="{ED661B4E-53BB-45E3-A9C9-42DA20D22CD8}"/>
-    <hyperlink ref="D25" r:id="rId11" xr:uid="{E31DB53B-E32F-4057-8228-41291C5DB32E}"/>
-    <hyperlink ref="D26" r:id="rId12" xr:uid="{EB2876A7-2FE0-4F4D-8F42-119FF4D7DE4C}"/>
-    <hyperlink ref="D27" r:id="rId13" xr:uid="{FBB0FB3F-17F3-4F19-BB66-B09933C7ED2B}"/>
-    <hyperlink ref="D28" r:id="rId14" xr:uid="{AC371EAA-F648-4F46-9875-A66570F19DCB}"/>
-    <hyperlink ref="D32" r:id="rId15" xr:uid="{353D1350-881F-48E5-AE75-83F59119754C}"/>
-    <hyperlink ref="D35" r:id="rId16" xr:uid="{79D5CF3B-2D7A-420D-96F8-411A52B1FCD6}"/>
-    <hyperlink ref="D39" r:id="rId17" xr:uid="{B01FF46F-9B33-48D0-B7AF-30ECC1019D9C}"/>
-    <hyperlink ref="D40" r:id="rId18" xr:uid="{A1835D94-7B93-4A35-9D7D-54497097A63D}"/>
-    <hyperlink ref="D41" r:id="rId19" xr:uid="{074C7E7F-96A5-4708-AC25-8ED3BAC13724}"/>
-    <hyperlink ref="D44" r:id="rId20" xr:uid="{1E6CE563-D33F-40E7-AB74-F494560A99B9}"/>
-    <hyperlink ref="D45" r:id="rId21" xr:uid="{CF16F808-F96E-4264-BE5A-83F2F667F162}"/>
-    <hyperlink ref="D53" r:id="rId22" xr:uid="{7CC9A5BE-2F66-4683-896F-20582CEB6DF4}"/>
-    <hyperlink ref="D56" r:id="rId23" xr:uid="{BB894060-7763-4D82-877C-E68B6AA0A241}"/>
-    <hyperlink ref="D57" r:id="rId24" xr:uid="{B328C352-B0D9-4AAC-8031-716C05C32161}"/>
-    <hyperlink ref="D59" r:id="rId25" xr:uid="{54BF004D-A3ED-4D47-9BE8-00D92F375968}"/>
-    <hyperlink ref="D67" r:id="rId26" xr:uid="{EEEA0389-5748-4110-BA2F-ED5A466F0994}"/>
-    <hyperlink ref="D75" r:id="rId27" xr:uid="{CC3F3BBD-E254-481B-B59F-986DC159C1C6}"/>
-    <hyperlink ref="D76" r:id="rId28" xr:uid="{B4B4B8FC-660D-4917-BFAB-2EFBE3726C70}"/>
-    <hyperlink ref="D82" r:id="rId29" xr:uid="{32649840-1B19-4A81-BF62-E0DAE8E56A6A}"/>
-    <hyperlink ref="D83" r:id="rId30" xr:uid="{A7E608CB-FC2D-4897-8A3A-A40F9E3D312E}"/>
-    <hyperlink ref="D85" r:id="rId31" xr:uid="{018642E6-6CFD-43FC-93A1-3D31AF386BCD}"/>
-    <hyperlink ref="D88" r:id="rId32" xr:uid="{5AFB3C47-341D-48EF-A254-E78E1AD22105}"/>
-    <hyperlink ref="D91" r:id="rId33" xr:uid="{6FEF5465-F62B-4446-A92D-C76C7E85D2B6}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{E4D28E08-87C9-4616-9A79-B5036C4F57D8}"/>
+    <hyperlink ref="D21" r:id="rId9" xr:uid="{ED661B4E-53BB-45E3-A9C9-42DA20D22CD8}"/>
+    <hyperlink ref="D25" r:id="rId10" xr:uid="{E31DB53B-E32F-4057-8228-41291C5DB32E}"/>
+    <hyperlink ref="D26" r:id="rId11" xr:uid="{EB2876A7-2FE0-4F4D-8F42-119FF4D7DE4C}"/>
+    <hyperlink ref="D27" r:id="rId12" xr:uid="{FBB0FB3F-17F3-4F19-BB66-B09933C7ED2B}"/>
+    <hyperlink ref="D28" r:id="rId13" xr:uid="{AC371EAA-F648-4F46-9875-A66570F19DCB}"/>
+    <hyperlink ref="D32" r:id="rId14" xr:uid="{353D1350-881F-48E5-AE75-83F59119754C}"/>
+    <hyperlink ref="D35" r:id="rId15" xr:uid="{79D5CF3B-2D7A-420D-96F8-411A52B1FCD6}"/>
+    <hyperlink ref="D39" r:id="rId16" xr:uid="{B01FF46F-9B33-48D0-B7AF-30ECC1019D9C}"/>
+    <hyperlink ref="D40" r:id="rId17" xr:uid="{A1835D94-7B93-4A35-9D7D-54497097A63D}"/>
+    <hyperlink ref="D44" r:id="rId18" xr:uid="{1E6CE563-D33F-40E7-AB74-F494560A99B9}"/>
+    <hyperlink ref="D45" r:id="rId19" xr:uid="{CF16F808-F96E-4264-BE5A-83F2F667F162}"/>
+    <hyperlink ref="D53" r:id="rId20" xr:uid="{7CC9A5BE-2F66-4683-896F-20582CEB6DF4}"/>
+    <hyperlink ref="D56" r:id="rId21" xr:uid="{BB894060-7763-4D82-877C-E68B6AA0A241}"/>
+    <hyperlink ref="D57" r:id="rId22" xr:uid="{B328C352-B0D9-4AAC-8031-716C05C32161}"/>
+    <hyperlink ref="D59" r:id="rId23" xr:uid="{54BF004D-A3ED-4D47-9BE8-00D92F375968}"/>
+    <hyperlink ref="D75" r:id="rId24" xr:uid="{CC3F3BBD-E254-481B-B59F-986DC159C1C6}"/>
+    <hyperlink ref="D76" r:id="rId25" xr:uid="{B4B4B8FC-660D-4917-BFAB-2EFBE3726C70}"/>
+    <hyperlink ref="D82" r:id="rId26" xr:uid="{32649840-1B19-4A81-BF62-E0DAE8E56A6A}"/>
+    <hyperlink ref="D83" r:id="rId27" xr:uid="{A7E608CB-FC2D-4897-8A3A-A40F9E3D312E}"/>
+    <hyperlink ref="D85" r:id="rId28" xr:uid="{018642E6-6CFD-43FC-93A1-3D31AF386BCD}"/>
+    <hyperlink ref="D88" r:id="rId29" xr:uid="{5AFB3C47-341D-48EF-A254-E78E1AD22105}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
